--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshitha.M\IdeaProjects\new\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -430,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">

--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,87 +1,421 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Desktop\NIRA MASTERDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA4FF62-A882-4D3D-82F2-D18AB7F7E00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{340774E2-81B5-44E0-B3C1-67C571159674}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zone_user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+  <si>
+    <t>zone_code</t>
+  </si>
+  <si>
+    <t>usr_id</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>zone_code</t>
-  </si>
-  <si>
-    <t>usr_id</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
-    <t>globaladmin</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>operator1</t>
   </si>
   <si>
     <t>service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>KLA</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>karthik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -90,36 +424,204 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,39 +647,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -229,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -340,13 +842,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -355,6 +850,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -419,76 +921,297 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC9B2F6-1BCA-4430-BC8C-245E9B535660}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45337.275951435186</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45341.340979652778</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45341.341220821756</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45337.275951435186</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45341.310008391207</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45341.31038826389</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45341.310175196762</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45341.310327962965</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45344.236643483797</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45344.237482696757</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45369.234739548614</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45369.234861342593</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45427.318547777781</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45427.318817546293</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\MASTER DATA\Master DAta Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4984A064-20DD-46D5-ABD0-0D103F8FB8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75150656-C138-4B0A-9D92-352802938897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF12C0FF-A0C7-49B9-86CB-5DD285B0076D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF12C0FF-A0C7-49B9-86CB-5DD285B0076D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="404">
   <si>
-    <t>(operator)</t>
-  </si>
-  <si>
     <t>usr_id</t>
   </si>
   <si>
@@ -1248,6 +1245,9 @@
   </si>
   <si>
     <t>now()</t>
+  </si>
+  <si>
+    <t>zone_code</t>
   </si>
 </sst>
 </file>
@@ -1726,69 +1726,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3591B3-120C-43B4-AE73-849AC2D3AE7B}">
   <dimension ref="A1:J265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5">
         <v>6.3412210648148104</v>
@@ -1798,27 +1796,27 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="5">
         <v>9.3412210648148193</v>
@@ -1828,27 +1826,27 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="5">
         <v>4.5912210648148104</v>
@@ -1858,27 +1856,27 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5">
         <v>5.5912210648148104</v>
@@ -1888,27 +1886,27 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5">
         <v>6.2162210648148104</v>
@@ -1918,27 +1916,27 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5">
         <v>5.2995543981481497</v>
@@ -1948,27 +1946,27 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="5">
         <v>10.9662210648148</v>
@@ -1978,27 +1976,27 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5">
         <v>4.9554398148148097E-2</v>
@@ -2008,27 +2006,27 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5">
         <v>11.3828877314815</v>
@@ -2038,27 +2036,27 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="5">
         <v>11.5912210648148</v>
@@ -2068,27 +2066,27 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5">
         <v>6.5912210648148104</v>
@@ -2098,27 +2096,27 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5">
         <v>5.0912210648148104</v>
@@ -2128,27 +2126,27 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5">
         <v>5.4245543981481497</v>
@@ -2158,27 +2156,27 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5">
         <v>3.1745543981481501</v>
@@ -2188,27 +2186,27 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="5">
         <v>10.8828877314815</v>
@@ -2218,27 +2216,27 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5">
         <v>4.00788773148148</v>
@@ -2248,27 +2246,27 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="5">
         <v>9.1221064814814803E-2</v>
@@ -2278,27 +2276,27 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5">
         <v>0.132887731481481</v>
@@ -2308,27 +2306,27 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="5">
         <v>0.17455439814814799</v>
@@ -2338,27 +2336,27 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="5">
         <v>8.1745543981481497</v>
@@ -2368,27 +2366,27 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="5">
         <v>3.59122106481481</v>
@@ -2398,27 +2396,27 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="5">
         <v>0.21622106481481501</v>
@@ -2428,27 +2426,27 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="5">
         <v>8.5495543981481497</v>
@@ -2458,27 +2456,27 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="5">
         <v>0.25788773148148098</v>
@@ -2488,27 +2486,27 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="5">
         <v>4.9245543981481497</v>
@@ -2518,27 +2516,27 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="5">
         <v>5.1745543981481497</v>
@@ -2548,27 +2546,27 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="5">
         <v>0.29955439814814799</v>
@@ -2578,27 +2576,27 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="5">
         <v>0.34122106481481501</v>
@@ -2608,27 +2606,27 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5">
         <v>3.71622106481481</v>
@@ -2638,27 +2636,27 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="5">
         <v>5.7995543981481497</v>
@@ -2668,27 +2666,27 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5">
         <v>10.1745543981481</v>
@@ -2698,27 +2696,27 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5">
         <v>0.38288773148148098</v>
@@ -2728,27 +2726,27 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="5">
         <v>4.13288773148148</v>
@@ -2758,27 +2756,27 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5">
         <v>7.8412210648148104</v>
@@ -2788,27 +2786,27 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="5">
         <v>0.42455439814814799</v>
@@ -2818,27 +2816,27 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="5">
         <v>5.25788773148148</v>
@@ -2848,27 +2846,27 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="5">
         <v>8.9662210648148193</v>
@@ -2878,27 +2876,27 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="5">
         <v>7.7162210648148104</v>
@@ -2908,27 +2906,27 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="5">
         <v>0.46622106481481501</v>
@@ -2938,27 +2936,27 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="5">
         <v>6.8412210648148104</v>
@@ -2968,27 +2966,27 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="5">
         <v>4.25788773148148</v>
@@ -2998,27 +2996,27 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="5">
         <v>9.7162210648148193</v>
@@ -3028,27 +3026,27 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="5">
         <v>11.7578877314815</v>
@@ -3058,27 +3056,27 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="5">
         <v>11.4662210648148</v>
@@ -3088,27 +3086,27 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="5">
         <v>9.6745543981481497</v>
@@ -3118,27 +3116,27 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="5">
         <v>11.0495543981481</v>
@@ -3148,27 +3146,27 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="5">
         <v>0.50788773148148103</v>
@@ -3178,27 +3176,27 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="5">
         <v>0.54955439814814799</v>
@@ -3208,27 +3206,27 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" s="5">
         <v>11.7162210648148</v>
@@ -3238,27 +3236,27 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="5">
         <v>6.4245543981481497</v>
@@ -3268,27 +3266,27 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="5">
         <v>11.5078877314815</v>
@@ -3298,27 +3296,27 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="5">
         <v>9.9245543981481497</v>
@@ -3328,27 +3326,27 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="5">
         <v>6.0912210648148104</v>
@@ -3358,27 +3356,27 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="5">
         <v>10.4245543981481</v>
@@ -3388,27 +3386,27 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="5">
         <v>8.50788773148148</v>
@@ -3418,27 +3416,27 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="5">
         <v>4.63288773148148</v>
@@ -3448,27 +3446,27 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="5">
         <v>0.59122106481481496</v>
@@ -3478,27 +3476,27 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="5">
         <v>11.7995543981481</v>
@@ -3508,27 +3506,27 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="5">
         <v>6.75788773148148</v>
@@ -3538,27 +3536,27 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="5">
         <v>5.8412210648148104</v>
@@ -3568,27 +3566,27 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="5">
         <v>0.63288773148148103</v>
@@ -3598,27 +3596,27 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="5">
         <v>11.4245543981481</v>
@@ -3628,27 +3626,27 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="5">
         <v>9.4662210648148193</v>
@@ -3658,27 +3656,27 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="5">
         <v>0.67455439814814799</v>
@@ -3688,27 +3686,27 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" s="5">
         <v>7.3412210648148104</v>
@@ -3718,27 +3716,27 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="5">
         <v>0.71622106481481496</v>
@@ -3748,27 +3746,27 @@
       </c>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="5">
         <v>10.6745543981481</v>
@@ -3778,27 +3776,27 @@
       </c>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="5">
         <v>9.0495543981481497</v>
@@ -3808,27 +3806,27 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="5">
         <v>0.75788773148148103</v>
@@ -3838,27 +3836,27 @@
       </c>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" s="5">
         <v>6.63288773148148</v>
@@ -3868,27 +3866,27 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="5">
         <v>0.79955439814814799</v>
@@ -3898,27 +3896,27 @@
       </c>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="5">
         <v>6.50788773148148</v>
@@ -3928,27 +3926,27 @@
       </c>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="5">
         <v>7.9245543981481497</v>
@@ -3958,27 +3956,27 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75" s="5">
         <v>6.38288773148148</v>
@@ -3988,27 +3986,27 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" s="5">
         <v>8.4245543981481497</v>
@@ -4018,27 +4016,27 @@
       </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="5">
         <v>0.84122106481481496</v>
@@ -4048,27 +4046,27 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" s="5">
         <v>3.2995543981481501</v>
@@ -4078,27 +4076,27 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" s="5">
         <v>0.88288773148148103</v>
@@ -4108,27 +4106,27 @@
       </c>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H80" s="5">
         <v>8.8412210648148193</v>
@@ -4138,27 +4136,27 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" s="5">
         <v>0.92455439814814799</v>
@@ -4168,27 +4166,27 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82" s="5">
         <v>0.96622106481481496</v>
@@ -4198,27 +4196,27 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" s="5">
         <v>1.00788773148148</v>
@@ -4228,27 +4226,27 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" s="5">
         <v>8.7995543981481497</v>
@@ -4258,27 +4256,27 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" s="5">
         <v>11.0078877314815</v>
@@ -4288,27 +4286,27 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86" s="5">
         <v>11.3412210648148</v>
@@ -4318,27 +4316,27 @@
       </c>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" s="5">
         <v>8.7162210648148193</v>
@@ -4348,27 +4346,27 @@
       </c>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" s="5">
         <v>6.2995543981481497</v>
@@ -4378,27 +4376,27 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" s="5">
         <v>6.7995543981481497</v>
@@ -4408,27 +4406,27 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="5">
         <v>1.0495543981481501</v>
@@ -4438,27 +4436,27 @@
       </c>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" s="5">
         <v>1.09122106481481</v>
@@ -4468,27 +4466,27 @@
       </c>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H92" s="5">
         <v>11.8412210648148</v>
@@ -4498,27 +4496,27 @@
       </c>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H93" s="5">
         <v>4.0495543981481497</v>
@@ -4528,27 +4526,27 @@
       </c>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" s="5">
         <v>3.38288773148148</v>
@@ -4558,27 +4556,27 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="5">
         <v>7.75788773148148</v>
@@ -4588,27 +4586,27 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" s="5">
         <v>5.2162210648148104</v>
@@ -4618,27 +4616,27 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" s="5">
         <v>4.2995543981481497</v>
@@ -4648,27 +4646,27 @@
       </c>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" s="5">
         <v>3.84122106481481</v>
@@ -4678,27 +4676,27 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" s="5">
         <v>9.38288773148148</v>
@@ -4708,27 +4706,27 @@
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H100" s="5">
         <v>10.3828877314815</v>
@@ -4738,27 +4736,27 @@
       </c>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101" s="5">
         <v>1.13288773148148</v>
@@ -4768,27 +4766,27 @@
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" s="5">
         <v>1.1745543981481501</v>
@@ -4798,27 +4796,27 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H103" s="5">
         <v>7.4662210648148104</v>
@@ -4828,27 +4826,27 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H104" s="5">
         <v>7.0912210648148104</v>
@@ -4858,27 +4856,27 @@
       </c>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" s="5">
         <v>10.0912210648148</v>
@@ -4888,27 +4886,27 @@
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H106" s="5">
         <v>4.2162210648148104</v>
@@ -4918,27 +4916,27 @@
       </c>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H107" s="5">
         <v>1.21622106481481</v>
@@ -4948,27 +4946,27 @@
       </c>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H108" s="5">
         <v>11.6328877314815</v>
@@ -4978,27 +4976,27 @@
       </c>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109" s="5">
         <v>9.00788773148148</v>
@@ -5008,27 +5006,27 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110" s="5">
         <v>5.5495543981481497</v>
@@ -5038,27 +5036,27 @@
       </c>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H111" s="5">
         <v>6.13288773148148</v>
@@ -5068,27 +5066,27 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H112" s="5">
         <v>1.25788773148148</v>
@@ -5098,27 +5096,27 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H113" s="5">
         <v>1.2995543981481501</v>
@@ -5128,27 +5126,27 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D114" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" s="5">
         <v>10.0078877314815</v>
@@ -5158,27 +5156,27 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D115" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H115" s="5">
         <v>8.0495543981481497</v>
@@ -5188,27 +5186,27 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D116" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H116" s="5">
         <v>1.34122106481481</v>
@@ -5218,27 +5216,27 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H117" s="5">
         <v>7.5495543981481497</v>
@@ -5248,27 +5246,27 @@
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D118" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" s="5">
         <v>3.50788773148148</v>
@@ -5278,27 +5276,27 @@
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H119" s="5">
         <v>1.38288773148148</v>
@@ -5308,27 +5306,27 @@
       </c>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H120" s="5">
         <v>6.5495543981481497</v>
@@ -5338,27 +5336,27 @@
       </c>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H121" s="5">
         <v>1.4245543981481501</v>
@@ -5368,27 +5366,27 @@
       </c>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H122" s="5">
         <v>4.4245543981481497</v>
@@ -5398,27 +5396,27 @@
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H123" s="5">
         <v>6.88288773148148</v>
@@ -5428,27 +5426,27 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D124" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H124" s="5">
         <v>1.46622106481481</v>
@@ -5458,27 +5456,27 @@
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H125" s="5">
         <v>11.2578877314815</v>
@@ -5488,27 +5486,27 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H126" s="5">
         <v>1.50788773148148</v>
@@ -5518,27 +5516,27 @@
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H127" s="5">
         <v>10.5078877314815</v>
@@ -5548,27 +5546,27 @@
       </c>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H128" s="5">
         <v>3.13288773148148</v>
@@ -5578,27 +5576,27 @@
       </c>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H129" s="5">
         <v>10.5495543981481</v>
@@ -5608,27 +5606,27 @@
       </c>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D130" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H130" s="5">
         <v>1.5495543981481501</v>
@@ -5638,27 +5636,27 @@
       </c>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D131" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H131" s="5">
         <v>6.00788773148148</v>
@@ -5668,27 +5666,27 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H132" s="5">
         <v>9.0912210648148193</v>
@@ -5698,27 +5696,27 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H133" s="5">
         <v>9.5495543981481497</v>
@@ -5728,27 +5726,27 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D134" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H134" s="5">
         <v>6.7162210648148104</v>
@@ -5758,27 +5756,27 @@
       </c>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H135" s="5">
         <v>7.7995543981481497</v>
@@ -5788,27 +5786,27 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D136" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H136" s="5">
         <v>4.7995543981481497</v>
@@ -5818,27 +5816,27 @@
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H137" s="5">
         <v>6.4662210648148104</v>
@@ -5848,27 +5846,27 @@
       </c>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D138" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H138" s="5">
         <v>4.4662210648148104</v>
@@ -5878,27 +5876,27 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D139" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H139" s="5">
         <v>8.75788773148148</v>
@@ -5908,27 +5906,27 @@
       </c>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D140" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H140" s="5">
         <v>8.2162210648148193</v>
@@ -5938,27 +5936,27 @@
       </c>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D141" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H141" s="5">
         <v>8.6745543981481497</v>
@@ -5968,27 +5966,27 @@
       </c>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D142" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H142" s="5">
         <v>1.59122106481481</v>
@@ -5998,27 +5996,27 @@
       </c>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H143" s="5">
         <v>1.63288773148148</v>
@@ -6028,27 +6026,27 @@
       </c>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H144" s="5">
         <v>11.6745543981481</v>
@@ -6058,27 +6056,27 @@
       </c>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H145" s="5">
         <v>7.5912210648148104</v>
@@ -6088,27 +6086,27 @@
       </c>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D146" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H146" s="5">
         <v>1.6745543981481501</v>
@@ -6118,27 +6116,27 @@
       </c>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D147" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H147" s="5">
         <v>9.63288773148148</v>
@@ -6148,27 +6146,27 @@
       </c>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D148" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H148" s="5">
         <v>6.9245543981481497</v>
@@ -6178,27 +6176,27 @@
       </c>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H149" s="5">
         <v>1.71622106481481</v>
@@ -6208,27 +6206,27 @@
       </c>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D150" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H150" s="5">
         <v>9.2162210648148193</v>
@@ -6238,27 +6236,27 @@
       </c>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D151" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H151" s="5">
         <v>1.75788773148148</v>
@@ -6268,27 +6266,27 @@
       </c>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D152" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H152" s="5">
         <v>1.7995543981481501</v>
@@ -6298,27 +6296,27 @@
       </c>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D153" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H153" s="5">
         <v>4.1745543981481497</v>
@@ -6328,27 +6326,27 @@
       </c>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D154" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H154" s="5">
         <v>1.84122106481481</v>
@@ -6358,27 +6356,27 @@
       </c>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H155" s="5">
         <v>11.1745543981481</v>
@@ -6388,27 +6386,27 @@
       </c>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D156" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H156" s="5">
         <v>1.88288773148148</v>
@@ -6418,27 +6416,27 @@
       </c>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D157" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H157" s="5">
         <v>6.0495543981481497</v>
@@ -6448,27 +6446,27 @@
       </c>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D158" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H158" s="5">
         <v>7.0495543981481497</v>
@@ -6478,27 +6476,27 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D159" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H159" s="5">
         <v>9.2995543981481497</v>
@@ -6508,27 +6506,27 @@
       </c>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D160" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H160" s="5">
         <v>1.9245543981481501</v>
@@ -6538,27 +6536,27 @@
       </c>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H161" s="5">
         <v>5.7162210648148104</v>
@@ -6568,27 +6566,27 @@
       </c>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D162" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H162" s="5">
         <v>3.96622106481481</v>
@@ -6598,27 +6596,27 @@
       </c>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D163" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H163" s="5">
         <v>3.5495543981481501</v>
@@ -6628,27 +6626,27 @@
       </c>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D164" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H164" s="5">
         <v>1.96622106481481</v>
@@ -6658,27 +6656,27 @@
       </c>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D165" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H165" s="5">
         <v>7.88288773148148</v>
@@ -6688,27 +6686,27 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D166" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166" s="5">
         <v>2.00788773148148</v>
@@ -6718,27 +6716,27 @@
       </c>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H167" s="5">
         <v>4.6745543981481497</v>
@@ -6748,27 +6746,27 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D168" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H168" s="5">
         <v>8.2995543981481497</v>
@@ -6778,27 +6776,27 @@
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D169" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H169" s="5">
         <v>8.00788773148148</v>
@@ -6808,27 +6806,27 @@
       </c>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D170" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H170" s="5">
         <v>2.0495543981481501</v>
@@ -6838,27 +6836,27 @@
       </c>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H171" s="5">
         <v>7.25788773148148</v>
@@ -6868,27 +6866,27 @@
       </c>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D172" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H172" s="5">
         <v>8.38288773148148</v>
@@ -6898,27 +6896,27 @@
       </c>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D173" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H173" s="5">
         <v>3.21622106481481</v>
@@ -6928,27 +6926,27 @@
       </c>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D174" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H174" s="5">
         <v>2.09122106481481</v>
@@ -6958,27 +6956,27 @@
       </c>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D175" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H175" s="5">
         <v>10.3412210648148</v>
@@ -6988,27 +6986,27 @@
       </c>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D176" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H176" s="5">
         <v>2.13288773148148</v>
@@ -7018,27 +7016,27 @@
       </c>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D177" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H177" s="5">
         <v>10.2162210648148</v>
@@ -7048,27 +7046,27 @@
       </c>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D178" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H178" s="5">
         <v>7.1745543981481497</v>
@@ -7078,27 +7076,27 @@
       </c>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D179" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H179" s="5">
         <v>10.4662210648148</v>
@@ -7108,27 +7106,27 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D180" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H180" s="5">
         <v>4.0912210648148104</v>
@@ -7138,27 +7136,27 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D181" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H181" s="5">
         <v>6.9662210648148104</v>
@@ -7168,27 +7166,27 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D182" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H182" s="5">
         <v>9.7995543981481497</v>
@@ -7198,27 +7196,27 @@
       </c>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D183" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H183" s="5">
         <v>2.1745543981481501</v>
@@ -7228,27 +7226,27 @@
       </c>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D184" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H184" s="5">
         <v>8.9245543981481497</v>
@@ -7258,27 +7256,27 @@
       </c>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H185" s="5">
         <v>3.75788773148148</v>
@@ -7288,27 +7286,27 @@
       </c>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D186" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H186" s="5">
         <v>5.75788773148148</v>
@@ -7318,27 +7316,27 @@
       </c>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H187" s="5">
         <v>5.13288773148148</v>
@@ -7348,27 +7346,27 @@
       </c>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D188" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H188" s="5">
         <v>8.13288773148148</v>
@@ -7378,27 +7376,27 @@
       </c>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D189" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H189" s="5">
         <v>8.5912210648148193</v>
@@ -7408,27 +7406,27 @@
       </c>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D190" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H190" s="5">
         <v>7.4245543981481497</v>
@@ -7438,27 +7436,27 @@
       </c>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D191" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H191" s="5">
         <v>5.6745543981481497</v>
@@ -7468,27 +7466,27 @@
       </c>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D192" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H192" s="5">
         <v>9.75788773148148</v>
@@ -7498,27 +7496,27 @@
       </c>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D193" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H193" s="5">
         <v>2.21622106481481</v>
@@ -7528,27 +7526,27 @@
       </c>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D194" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H194" s="5">
         <v>8.88288773148148</v>
@@ -7558,27 +7556,27 @@
       </c>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D195" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H195" s="5">
         <v>2.25788773148148</v>
@@ -7588,27 +7586,27 @@
       </c>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D196" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H196" s="5">
         <v>8.63288773148148</v>
@@ -7618,27 +7616,27 @@
       </c>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D197" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H197" s="5">
         <v>2.2995543981481501</v>
@@ -7648,27 +7646,27 @@
       </c>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C198" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D198" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H198" s="5">
         <v>7.8877314814814817E-3</v>
@@ -7678,27 +7676,27 @@
       </c>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D199" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H199" s="5">
         <v>5.00788773148148</v>
@@ -7708,27 +7706,27 @@
       </c>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D200" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H200" s="5">
         <v>5.0495543981481497</v>
@@ -7738,27 +7736,27 @@
       </c>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D201" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H201" s="5">
         <v>2.34122106481481</v>
@@ -7768,27 +7766,27 @@
       </c>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D202" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H202" s="5">
         <v>11.8828877314815</v>
@@ -7798,27 +7796,27 @@
       </c>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D203" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H203" s="5">
         <v>2.38288773148148</v>
@@ -7828,27 +7826,27 @@
       </c>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D204" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H204" s="5">
         <v>2.4245543981481501</v>
@@ -7858,27 +7856,27 @@
       </c>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D205" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H205" s="5">
         <v>11.0912210648148</v>
@@ -7888,27 +7886,27 @@
       </c>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D206" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H206" s="5">
         <v>2.46622106481481</v>
@@ -7918,27 +7916,27 @@
       </c>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D207" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H207" s="5">
         <v>8.25788773148148</v>
@@ -7948,27 +7946,27 @@
       </c>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D208" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H208" s="5">
         <v>10.8412210648148</v>
@@ -7978,27 +7976,27 @@
       </c>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D209" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H209" s="5">
         <v>5.63288773148148</v>
@@ -8008,27 +8006,27 @@
       </c>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D210" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H210" s="5">
         <v>5.38288773148148</v>
@@ -8038,27 +8036,27 @@
       </c>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D211" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H211" s="5">
         <v>8.4662210648148193</v>
@@ -8068,27 +8066,27 @@
       </c>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D212" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H212" s="5">
         <v>10.7995543981481</v>
@@ -8098,27 +8096,27 @@
       </c>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D213" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H213" s="5">
         <v>4.3412210648148104</v>
@@ -8128,27 +8126,27 @@
       </c>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D214" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H214" s="5">
         <v>7.13288773148148</v>
@@ -8158,27 +8156,27 @@
       </c>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D215" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H215" s="5">
         <v>3.6745543981481501</v>
@@ -8188,27 +8186,27 @@
       </c>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D216" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H216" s="5">
         <v>4.9662210648148104</v>
@@ -8218,27 +8216,27 @@
       </c>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D217" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H217" s="5">
         <v>9.1745543981481497</v>
@@ -8248,27 +8246,27 @@
       </c>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D218" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H218" s="5">
         <v>3.25788773148148</v>
@@ -8278,27 +8276,27 @@
       </c>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D219" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H219" s="5">
         <v>3.7995543981481501</v>
@@ -8308,27 +8306,27 @@
       </c>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D220" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H220" s="5">
         <v>4.8412210648148104</v>
@@ -8338,27 +8336,27 @@
       </c>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D221" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H221" s="5">
         <v>3.34122106481481</v>
@@ -8368,27 +8366,27 @@
       </c>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D222" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H222" s="5">
         <v>9.13288773148148</v>
@@ -8398,27 +8396,27 @@
       </c>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D223" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H223" s="5">
         <v>6.25788773148148</v>
@@ -8428,27 +8426,27 @@
       </c>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D224" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H224" s="5">
         <v>3.88288773148148</v>
@@ -8458,27 +8456,27 @@
       </c>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D225" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H225" s="5">
         <v>10.9245543981481</v>
@@ -8488,27 +8486,27 @@
       </c>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D226" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H226" s="5">
         <v>10.2578877314815</v>
@@ -8518,27 +8516,27 @@
       </c>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D227" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H227" s="5">
         <v>3.4245543981481501</v>
@@ -8548,27 +8546,27 @@
       </c>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D228" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H228" s="5">
         <v>2.50788773148148</v>
@@ -8578,27 +8576,27 @@
       </c>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D229" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H229" s="5">
         <v>4.5495543981481497</v>
@@ -8608,27 +8606,27 @@
       </c>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D230" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H230" s="5">
         <v>7.63288773148148</v>
@@ -8638,27 +8636,27 @@
       </c>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D231" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H231" s="5">
         <v>9.9662210648148193</v>
@@ -8668,27 +8666,27 @@
       </c>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D232" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H232" s="5">
         <v>9.4245543981481497</v>
@@ -8698,27 +8696,27 @@
       </c>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D233" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H233" s="5">
         <v>2.5495543981481501</v>
@@ -8728,27 +8726,27 @@
       </c>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D234" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H234" s="5">
         <v>2.59122106481481</v>
@@ -8758,27 +8756,27 @@
       </c>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D235" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H235" s="5">
         <v>5.4662210648148104</v>
@@ -8788,27 +8786,27 @@
       </c>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D236" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H236" s="5">
         <v>7.9662210648148104</v>
@@ -8818,27 +8816,27 @@
       </c>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D237" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H237" s="5">
         <v>11.1328877314815</v>
@@ -8848,27 +8846,27 @@
       </c>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D238" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H238" s="5">
         <v>11.5495543981481</v>
@@ -8878,27 +8876,27 @@
       </c>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D239" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H239" s="5">
         <v>10.0495543981481</v>
@@ -8908,27 +8906,27 @@
       </c>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D240" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H240" s="5">
         <v>11.2162210648148</v>
@@ -8938,27 +8936,27 @@
       </c>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D241" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H241" s="5">
         <v>3.63288773148148</v>
@@ -8968,27 +8966,27 @@
       </c>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D242" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H242" s="5">
         <v>2.63288773148148</v>
@@ -8998,27 +8996,27 @@
       </c>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D243" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H243" s="5">
         <v>4.7162210648148104</v>
@@ -9028,27 +9026,27 @@
       </c>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D244" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H244" s="5">
         <v>2.6745543981481501</v>
@@ -9058,27 +9056,27 @@
       </c>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D245" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H245" s="5">
         <v>2.71622106481481</v>
@@ -9088,27 +9086,27 @@
       </c>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D246" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H246" s="5">
         <v>9.25788773148148</v>
@@ -9118,27 +9116,27 @@
       </c>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D247" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H247" s="5">
         <v>10.7578877314815</v>
@@ -9148,27 +9146,27 @@
       </c>
       <c r="J247" s="2"/>
     </row>
-    <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D248" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H248" s="5">
         <v>2.75788773148148</v>
@@ -9178,27 +9176,27 @@
       </c>
       <c r="J248" s="2"/>
     </row>
-    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D249" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H249" s="5">
         <v>2.7995543981481501</v>
@@ -9208,27 +9206,27 @@
       </c>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D250" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H250" s="5">
         <v>2.84122106481481</v>
@@ -9238,27 +9236,27 @@
       </c>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D251" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H251" s="5">
         <v>11.2995543981481</v>
@@ -9268,27 +9266,27 @@
       </c>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D252" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H252" s="5">
         <v>2.88288773148148</v>
@@ -9298,27 +9296,27 @@
       </c>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D253" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H253" s="5">
         <v>2.9245543981481501</v>
@@ -9328,27 +9326,27 @@
       </c>
       <c r="J253" s="2"/>
     </row>
-    <row r="254" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D254" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H254" s="5">
         <v>7.2995543981481497</v>
@@ -9358,27 +9356,27 @@
       </c>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D255" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H255" s="5">
         <v>2.96622106481481</v>
@@ -9388,27 +9386,27 @@
       </c>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D256" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H256" s="5">
         <v>6.1745543981481497</v>
@@ -9418,27 +9416,27 @@
       </c>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D257" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H257" s="5">
         <v>5.50788773148148</v>
@@ -9448,27 +9446,27 @@
       </c>
       <c r="J257" s="2"/>
     </row>
-    <row r="258" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D258" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H258" s="5">
         <v>6.6745543981481497</v>
@@ -9478,27 +9476,27 @@
       </c>
       <c r="J258" s="2"/>
     </row>
-    <row r="259" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D259" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H259" s="5">
         <v>7.50788773148148</v>
@@ -9508,27 +9506,27 @@
       </c>
       <c r="J259" s="2"/>
     </row>
-    <row r="260" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D260" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H260" s="5">
         <v>3.00788773148148</v>
@@ -9538,27 +9536,27 @@
       </c>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D261" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H261" s="5">
         <v>3.46622106481481</v>
@@ -9568,27 +9566,27 @@
       </c>
       <c r="J261" s="2"/>
     </row>
-    <row r="262" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D262" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H262" s="5">
         <v>8.0912210648148193</v>
@@ -9598,27 +9596,27 @@
       </c>
       <c r="J262" s="2"/>
     </row>
-    <row r="263" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D263" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H263" s="5">
         <v>3.0495543981481501</v>
@@ -9628,27 +9626,27 @@
       </c>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D264" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H264" s="5">
         <v>3.09122106481481</v>
@@ -9658,27 +9656,27 @@
       </c>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D265" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H265" s="5">
         <v>10.7162210648148</v>

--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75150656-C138-4B0A-9D92-352802938897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D338066-A550-4275-8D47-A7C157E81388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF12C0FF-A0C7-49B9-86CB-5DD285B0076D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="404">
   <si>
     <t>usr_id</t>
   </si>
@@ -1726,7 +1726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3591B3-120C-43B4-AE73-849AC2D3AE7B}">
   <dimension ref="A1:J265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H265"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1788,8 +1790,8 @@
       <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
-        <v>6.3412210648148104</v>
+      <c r="H2" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I2" s="4" t="b">
         <v>0</v>
@@ -1818,8 +1820,8 @@
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5">
-        <v>9.3412210648148193</v>
+      <c r="H3" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I3" s="4" t="b">
         <v>0</v>
@@ -1848,8 +1850,8 @@
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5">
-        <v>4.5912210648148104</v>
+      <c r="H4" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I4" s="4" t="b">
         <v>0</v>
@@ -1878,8 +1880,8 @@
       <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5">
-        <v>5.5912210648148104</v>
+      <c r="H5" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I5" s="4" t="b">
         <v>0</v>
@@ -1908,8 +1910,8 @@
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5">
-        <v>6.2162210648148104</v>
+      <c r="H6" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>0</v>
@@ -1938,8 +1940,8 @@
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5">
-        <v>5.2995543981481497</v>
+      <c r="H7" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>0</v>
@@ -1968,8 +1970,8 @@
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="5">
-        <v>10.9662210648148</v>
+      <c r="H8" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>0</v>
@@ -1998,8 +2000,8 @@
       <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5">
-        <v>4.9554398148148097E-2</v>
+      <c r="H9" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>0</v>
@@ -2028,8 +2030,8 @@
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5">
-        <v>11.3828877314815</v>
+      <c r="H10" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>0</v>
@@ -2058,8 +2060,8 @@
       <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="5">
-        <v>11.5912210648148</v>
+      <c r="H11" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>0</v>
@@ -2088,8 +2090,8 @@
       <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="5">
-        <v>6.5912210648148104</v>
+      <c r="H12" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I12" s="4" t="b">
         <v>0</v>
@@ -2118,8 +2120,8 @@
       <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="5">
-        <v>5.0912210648148104</v>
+      <c r="H13" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>0</v>
@@ -2148,8 +2150,8 @@
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="5">
-        <v>5.4245543981481497</v>
+      <c r="H14" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>0</v>
@@ -2178,8 +2180,8 @@
       <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="5">
-        <v>3.1745543981481501</v>
+      <c r="H15" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>0</v>
@@ -2208,8 +2210,8 @@
       <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="5">
-        <v>10.8828877314815</v>
+      <c r="H16" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>0</v>
@@ -2238,8 +2240,8 @@
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="5">
-        <v>4.00788773148148</v>
+      <c r="H17" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I17" s="4" t="b">
         <v>0</v>
@@ -2268,8 +2270,8 @@
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="5">
-        <v>9.1221064814814803E-2</v>
+      <c r="H18" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I18" s="4" t="b">
         <v>0</v>
@@ -2298,8 +2300,8 @@
       <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="5">
-        <v>0.132887731481481</v>
+      <c r="H19" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I19" s="4" t="b">
         <v>0</v>
@@ -2328,8 +2330,8 @@
       <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="5">
-        <v>0.17455439814814799</v>
+      <c r="H20" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I20" s="4" t="b">
         <v>0</v>
@@ -2358,8 +2360,8 @@
       <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="5">
-        <v>8.1745543981481497</v>
+      <c r="H21" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I21" s="4" t="b">
         <v>0</v>
@@ -2388,8 +2390,8 @@
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="5">
-        <v>3.59122106481481</v>
+      <c r="H22" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I22" s="4" t="b">
         <v>0</v>
@@ -2418,8 +2420,8 @@
       <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="5">
-        <v>0.21622106481481501</v>
+      <c r="H23" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I23" s="4" t="b">
         <v>0</v>
@@ -2448,8 +2450,8 @@
       <c r="G24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="5">
-        <v>8.5495543981481497</v>
+      <c r="H24" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I24" s="4" t="b">
         <v>0</v>
@@ -2478,8 +2480,8 @@
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="5">
-        <v>0.25788773148148098</v>
+      <c r="H25" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I25" s="4" t="b">
         <v>0</v>
@@ -2508,8 +2510,8 @@
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="5">
-        <v>4.9245543981481497</v>
+      <c r="H26" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I26" s="4" t="b">
         <v>0</v>
@@ -2538,8 +2540,8 @@
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="5">
-        <v>5.1745543981481497</v>
+      <c r="H27" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I27" s="4" t="b">
         <v>0</v>
@@ -2568,8 +2570,8 @@
       <c r="G28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="5">
-        <v>0.29955439814814799</v>
+      <c r="H28" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I28" s="4" t="b">
         <v>0</v>
@@ -2598,8 +2600,8 @@
       <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="5">
-        <v>0.34122106481481501</v>
+      <c r="H29" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I29" s="4" t="b">
         <v>0</v>
@@ -2628,8 +2630,8 @@
       <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="5">
-        <v>3.71622106481481</v>
+      <c r="H30" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I30" s="4" t="b">
         <v>0</v>
@@ -2658,8 +2660,8 @@
       <c r="G31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="5">
-        <v>5.7995543981481497</v>
+      <c r="H31" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I31" s="4" t="b">
         <v>0</v>
@@ -2688,8 +2690,8 @@
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="5">
-        <v>10.1745543981481</v>
+      <c r="H32" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I32" s="4" t="b">
         <v>0</v>
@@ -2718,8 +2720,8 @@
       <c r="G33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="5">
-        <v>0.38288773148148098</v>
+      <c r="H33" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I33" s="4" t="b">
         <v>0</v>
@@ -2748,8 +2750,8 @@
       <c r="G34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="5">
-        <v>4.13288773148148</v>
+      <c r="H34" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I34" s="4" t="b">
         <v>0</v>
@@ -2778,8 +2780,8 @@
       <c r="G35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="5">
-        <v>7.8412210648148104</v>
+      <c r="H35" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I35" s="4" t="b">
         <v>0</v>
@@ -2808,8 +2810,8 @@
       <c r="G36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="5">
-        <v>0.42455439814814799</v>
+      <c r="H36" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I36" s="4" t="b">
         <v>0</v>
@@ -2838,8 +2840,8 @@
       <c r="G37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="5">
-        <v>5.25788773148148</v>
+      <c r="H37" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I37" s="4" t="b">
         <v>0</v>
@@ -2868,8 +2870,8 @@
       <c r="G38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="5">
-        <v>8.9662210648148193</v>
+      <c r="H38" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I38" s="4" t="b">
         <v>0</v>
@@ -2898,8 +2900,8 @@
       <c r="G39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="5">
-        <v>7.7162210648148104</v>
+      <c r="H39" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I39" s="4" t="b">
         <v>0</v>
@@ -2928,8 +2930,8 @@
       <c r="G40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="5">
-        <v>0.46622106481481501</v>
+      <c r="H40" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I40" s="4" t="b">
         <v>0</v>
@@ -2958,8 +2960,8 @@
       <c r="G41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="5">
-        <v>6.8412210648148104</v>
+      <c r="H41" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I41" s="4" t="b">
         <v>0</v>
@@ -2988,8 +2990,8 @@
       <c r="G42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="5">
-        <v>4.25788773148148</v>
+      <c r="H42" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I42" s="4" t="b">
         <v>0</v>
@@ -3018,8 +3020,8 @@
       <c r="G43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="5">
-        <v>9.7162210648148193</v>
+      <c r="H43" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I43" s="4" t="b">
         <v>0</v>
@@ -3048,8 +3050,8 @@
       <c r="G44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="5">
-        <v>11.7578877314815</v>
+      <c r="H44" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I44" s="4" t="b">
         <v>0</v>
@@ -3078,8 +3080,8 @@
       <c r="G45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="5">
-        <v>11.4662210648148</v>
+      <c r="H45" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I45" s="4" t="b">
         <v>0</v>
@@ -3108,8 +3110,8 @@
       <c r="G46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="5">
-        <v>9.6745543981481497</v>
+      <c r="H46" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I46" s="4" t="b">
         <v>0</v>
@@ -3138,8 +3140,8 @@
       <c r="G47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="5">
-        <v>11.0495543981481</v>
+      <c r="H47" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I47" s="4" t="b">
         <v>0</v>
@@ -3168,8 +3170,8 @@
       <c r="G48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="5">
-        <v>0.50788773148148103</v>
+      <c r="H48" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I48" s="4" t="b">
         <v>0</v>
@@ -3198,8 +3200,8 @@
       <c r="G49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="5">
-        <v>0.54955439814814799</v>
+      <c r="H49" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I49" s="4" t="b">
         <v>0</v>
@@ -3228,8 +3230,8 @@
       <c r="G50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="5">
-        <v>11.7162210648148</v>
+      <c r="H50" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I50" s="4" t="b">
         <v>0</v>
@@ -3258,8 +3260,8 @@
       <c r="G51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="5">
-        <v>6.4245543981481497</v>
+      <c r="H51" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I51" s="4" t="b">
         <v>0</v>
@@ -3288,8 +3290,8 @@
       <c r="G52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="5">
-        <v>11.5078877314815</v>
+      <c r="H52" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I52" s="4" t="b">
         <v>0</v>
@@ -3318,8 +3320,8 @@
       <c r="G53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="5">
-        <v>9.9245543981481497</v>
+      <c r="H53" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I53" s="4" t="b">
         <v>0</v>
@@ -3348,8 +3350,8 @@
       <c r="G54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="5">
-        <v>6.0912210648148104</v>
+      <c r="H54" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I54" s="4" t="b">
         <v>0</v>
@@ -3378,8 +3380,8 @@
       <c r="G55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="5">
-        <v>10.4245543981481</v>
+      <c r="H55" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I55" s="4" t="b">
         <v>0</v>
@@ -3408,8 +3410,8 @@
       <c r="G56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="5">
-        <v>8.50788773148148</v>
+      <c r="H56" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I56" s="4" t="b">
         <v>0</v>
@@ -3438,8 +3440,8 @@
       <c r="G57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="5">
-        <v>4.63288773148148</v>
+      <c r="H57" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I57" s="4" t="b">
         <v>0</v>
@@ -3468,8 +3470,8 @@
       <c r="G58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="5">
-        <v>0.59122106481481496</v>
+      <c r="H58" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I58" s="4" t="b">
         <v>0</v>
@@ -3498,8 +3500,8 @@
       <c r="G59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="5">
-        <v>11.7995543981481</v>
+      <c r="H59" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I59" s="4" t="b">
         <v>0</v>
@@ -3528,8 +3530,8 @@
       <c r="G60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="5">
-        <v>6.75788773148148</v>
+      <c r="H60" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I60" s="4" t="b">
         <v>0</v>
@@ -3558,8 +3560,8 @@
       <c r="G61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="5">
-        <v>5.8412210648148104</v>
+      <c r="H61" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I61" s="4" t="b">
         <v>0</v>
@@ -3588,8 +3590,8 @@
       <c r="G62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="5">
-        <v>0.63288773148148103</v>
+      <c r="H62" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I62" s="4" t="b">
         <v>0</v>
@@ -3618,8 +3620,8 @@
       <c r="G63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="5">
-        <v>11.4245543981481</v>
+      <c r="H63" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I63" s="4" t="b">
         <v>0</v>
@@ -3648,8 +3650,8 @@
       <c r="G64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="5">
-        <v>9.4662210648148193</v>
+      <c r="H64" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I64" s="4" t="b">
         <v>0</v>
@@ -3678,8 +3680,8 @@
       <c r="G65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="5">
-        <v>0.67455439814814799</v>
+      <c r="H65" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I65" s="4" t="b">
         <v>0</v>
@@ -3708,8 +3710,8 @@
       <c r="G66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="5">
-        <v>7.3412210648148104</v>
+      <c r="H66" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I66" s="4" t="b">
         <v>0</v>
@@ -3738,8 +3740,8 @@
       <c r="G67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="5">
-        <v>0.71622106481481496</v>
+      <c r="H67" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I67" s="4" t="b">
         <v>0</v>
@@ -3768,8 +3770,8 @@
       <c r="G68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="5">
-        <v>10.6745543981481</v>
+      <c r="H68" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I68" s="4" t="b">
         <v>0</v>
@@ -3798,8 +3800,8 @@
       <c r="G69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="5">
-        <v>9.0495543981481497</v>
+      <c r="H69" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I69" s="4" t="b">
         <v>0</v>
@@ -3828,8 +3830,8 @@
       <c r="G70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="5">
-        <v>0.75788773148148103</v>
+      <c r="H70" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I70" s="4" t="b">
         <v>0</v>
@@ -3858,8 +3860,8 @@
       <c r="G71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="5">
-        <v>6.63288773148148</v>
+      <c r="H71" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I71" s="4" t="b">
         <v>0</v>
@@ -3888,8 +3890,8 @@
       <c r="G72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="5">
-        <v>0.79955439814814799</v>
+      <c r="H72" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I72" s="4" t="b">
         <v>0</v>
@@ -3918,8 +3920,8 @@
       <c r="G73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="5">
-        <v>6.50788773148148</v>
+      <c r="H73" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I73" s="4" t="b">
         <v>0</v>
@@ -3948,8 +3950,8 @@
       <c r="G74" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="5">
-        <v>7.9245543981481497</v>
+      <c r="H74" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I74" s="4" t="b">
         <v>0</v>
@@ -3978,8 +3980,8 @@
       <c r="G75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="5">
-        <v>6.38288773148148</v>
+      <c r="H75" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I75" s="4" t="b">
         <v>0</v>
@@ -4008,8 +4010,8 @@
       <c r="G76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="5">
-        <v>8.4245543981481497</v>
+      <c r="H76" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I76" s="4" t="b">
         <v>0</v>
@@ -4038,8 +4040,8 @@
       <c r="G77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="5">
-        <v>0.84122106481481496</v>
+      <c r="H77" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I77" s="4" t="b">
         <v>0</v>
@@ -4068,8 +4070,8 @@
       <c r="G78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="5">
-        <v>3.2995543981481501</v>
+      <c r="H78" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I78" s="4" t="b">
         <v>0</v>
@@ -4098,8 +4100,8 @@
       <c r="G79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="5">
-        <v>0.88288773148148103</v>
+      <c r="H79" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I79" s="4" t="b">
         <v>0</v>
@@ -4128,8 +4130,8 @@
       <c r="G80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="5">
-        <v>8.8412210648148193</v>
+      <c r="H80" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I80" s="4" t="b">
         <v>0</v>
@@ -4158,8 +4160,8 @@
       <c r="G81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="5">
-        <v>0.92455439814814799</v>
+      <c r="H81" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I81" s="4" t="b">
         <v>0</v>
@@ -4188,8 +4190,8 @@
       <c r="G82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="5">
-        <v>0.96622106481481496</v>
+      <c r="H82" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I82" s="4" t="b">
         <v>0</v>
@@ -4218,8 +4220,8 @@
       <c r="G83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="5">
-        <v>1.00788773148148</v>
+      <c r="H83" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I83" s="4" t="b">
         <v>0</v>
@@ -4248,8 +4250,8 @@
       <c r="G84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="5">
-        <v>8.7995543981481497</v>
+      <c r="H84" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I84" s="4" t="b">
         <v>0</v>
@@ -4278,8 +4280,8 @@
       <c r="G85" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="5">
-        <v>11.0078877314815</v>
+      <c r="H85" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I85" s="4" t="b">
         <v>0</v>
@@ -4308,8 +4310,8 @@
       <c r="G86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="5">
-        <v>11.3412210648148</v>
+      <c r="H86" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I86" s="4" t="b">
         <v>0</v>
@@ -4338,8 +4340,8 @@
       <c r="G87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="5">
-        <v>8.7162210648148193</v>
+      <c r="H87" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I87" s="4" t="b">
         <v>0</v>
@@ -4368,8 +4370,8 @@
       <c r="G88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H88" s="5">
-        <v>6.2995543981481497</v>
+      <c r="H88" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I88" s="4" t="b">
         <v>0</v>
@@ -4398,8 +4400,8 @@
       <c r="G89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="5">
-        <v>6.7995543981481497</v>
+      <c r="H89" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I89" s="4" t="b">
         <v>0</v>
@@ -4428,8 +4430,8 @@
       <c r="G90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="5">
-        <v>1.0495543981481501</v>
+      <c r="H90" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I90" s="4" t="b">
         <v>0</v>
@@ -4458,8 +4460,8 @@
       <c r="G91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="5">
-        <v>1.09122106481481</v>
+      <c r="H91" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I91" s="4" t="b">
         <v>0</v>
@@ -4488,8 +4490,8 @@
       <c r="G92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="5">
-        <v>11.8412210648148</v>
+      <c r="H92" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I92" s="4" t="b">
         <v>0</v>
@@ -4518,8 +4520,8 @@
       <c r="G93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="5">
-        <v>4.0495543981481497</v>
+      <c r="H93" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I93" s="4" t="b">
         <v>0</v>
@@ -4548,8 +4550,8 @@
       <c r="G94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="5">
-        <v>3.38288773148148</v>
+      <c r="H94" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I94" s="4" t="b">
         <v>0</v>
@@ -4578,8 +4580,8 @@
       <c r="G95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H95" s="5">
-        <v>7.75788773148148</v>
+      <c r="H95" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I95" s="4" t="b">
         <v>0</v>
@@ -4608,8 +4610,8 @@
       <c r="G96" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H96" s="5">
-        <v>5.2162210648148104</v>
+      <c r="H96" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I96" s="4" t="b">
         <v>0</v>
@@ -4638,8 +4640,8 @@
       <c r="G97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="5">
-        <v>4.2995543981481497</v>
+      <c r="H97" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I97" s="4" t="b">
         <v>0</v>
@@ -4668,8 +4670,8 @@
       <c r="G98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="5">
-        <v>3.84122106481481</v>
+      <c r="H98" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I98" s="4" t="b">
         <v>0</v>
@@ -4698,8 +4700,8 @@
       <c r="G99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="5">
-        <v>9.38288773148148</v>
+      <c r="H99" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I99" s="4" t="b">
         <v>0</v>
@@ -4728,8 +4730,8 @@
       <c r="G100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H100" s="5">
-        <v>10.3828877314815</v>
+      <c r="H100" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I100" s="4" t="b">
         <v>0</v>
@@ -4758,8 +4760,8 @@
       <c r="G101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="5">
-        <v>1.13288773148148</v>
+      <c r="H101" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I101" s="4" t="b">
         <v>0</v>
@@ -4788,8 +4790,8 @@
       <c r="G102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="5">
-        <v>1.1745543981481501</v>
+      <c r="H102" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I102" s="4" t="b">
         <v>0</v>
@@ -4818,8 +4820,8 @@
       <c r="G103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H103" s="5">
-        <v>7.4662210648148104</v>
+      <c r="H103" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I103" s="4" t="b">
         <v>0</v>
@@ -4848,8 +4850,8 @@
       <c r="G104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="5">
-        <v>7.0912210648148104</v>
+      <c r="H104" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I104" s="4" t="b">
         <v>0</v>
@@ -4878,8 +4880,8 @@
       <c r="G105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="5">
-        <v>10.0912210648148</v>
+      <c r="H105" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I105" s="4" t="b">
         <v>0</v>
@@ -4908,8 +4910,8 @@
       <c r="G106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="5">
-        <v>4.2162210648148104</v>
+      <c r="H106" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I106" s="4" t="b">
         <v>0</v>
@@ -4938,8 +4940,8 @@
       <c r="G107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="5">
-        <v>1.21622106481481</v>
+      <c r="H107" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I107" s="4" t="b">
         <v>0</v>
@@ -4968,8 +4970,8 @@
       <c r="G108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="5">
-        <v>11.6328877314815</v>
+      <c r="H108" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I108" s="4" t="b">
         <v>0</v>
@@ -4998,8 +5000,8 @@
       <c r="G109" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H109" s="5">
-        <v>9.00788773148148</v>
+      <c r="H109" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I109" s="4" t="b">
         <v>0</v>
@@ -5028,8 +5030,8 @@
       <c r="G110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="5">
-        <v>5.5495543981481497</v>
+      <c r="H110" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I110" s="4" t="b">
         <v>0</v>
@@ -5058,8 +5060,8 @@
       <c r="G111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="5">
-        <v>6.13288773148148</v>
+      <c r="H111" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I111" s="4" t="b">
         <v>0</v>
@@ -5088,8 +5090,8 @@
       <c r="G112" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="5">
-        <v>1.25788773148148</v>
+      <c r="H112" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I112" s="4" t="b">
         <v>0</v>
@@ -5118,8 +5120,8 @@
       <c r="G113" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H113" s="5">
-        <v>1.2995543981481501</v>
+      <c r="H113" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I113" s="4" t="b">
         <v>0</v>
@@ -5148,8 +5150,8 @@
       <c r="G114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="5">
-        <v>10.0078877314815</v>
+      <c r="H114" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I114" s="4" t="b">
         <v>0</v>
@@ -5178,8 +5180,8 @@
       <c r="G115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="5">
-        <v>8.0495543981481497</v>
+      <c r="H115" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I115" s="4" t="b">
         <v>0</v>
@@ -5208,8 +5210,8 @@
       <c r="G116" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="5">
-        <v>1.34122106481481</v>
+      <c r="H116" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I116" s="4" t="b">
         <v>0</v>
@@ -5238,8 +5240,8 @@
       <c r="G117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H117" s="5">
-        <v>7.5495543981481497</v>
+      <c r="H117" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I117" s="4" t="b">
         <v>0</v>
@@ -5268,8 +5270,8 @@
       <c r="G118" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="5">
-        <v>3.50788773148148</v>
+      <c r="H118" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I118" s="4" t="b">
         <v>0</v>
@@ -5298,8 +5300,8 @@
       <c r="G119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="5">
-        <v>1.38288773148148</v>
+      <c r="H119" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I119" s="4" t="b">
         <v>0</v>
@@ -5328,8 +5330,8 @@
       <c r="G120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="5">
-        <v>6.5495543981481497</v>
+      <c r="H120" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I120" s="4" t="b">
         <v>0</v>
@@ -5358,8 +5360,8 @@
       <c r="G121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="5">
-        <v>1.4245543981481501</v>
+      <c r="H121" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I121" s="4" t="b">
         <v>0</v>
@@ -5388,8 +5390,8 @@
       <c r="G122" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H122" s="5">
-        <v>4.4245543981481497</v>
+      <c r="H122" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I122" s="4" t="b">
         <v>0</v>
@@ -5418,8 +5420,8 @@
       <c r="G123" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="5">
-        <v>6.88288773148148</v>
+      <c r="H123" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I123" s="4" t="b">
         <v>0</v>
@@ -5448,8 +5450,8 @@
       <c r="G124" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="5">
-        <v>1.46622106481481</v>
+      <c r="H124" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I124" s="4" t="b">
         <v>0</v>
@@ -5478,8 +5480,8 @@
       <c r="G125" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="5">
-        <v>11.2578877314815</v>
+      <c r="H125" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I125" s="4" t="b">
         <v>0</v>
@@ -5508,8 +5510,8 @@
       <c r="G126" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="5">
-        <v>1.50788773148148</v>
+      <c r="H126" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I126" s="4" t="b">
         <v>0</v>
@@ -5538,8 +5540,8 @@
       <c r="G127" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="5">
-        <v>10.5078877314815</v>
+      <c r="H127" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I127" s="4" t="b">
         <v>0</v>
@@ -5568,8 +5570,8 @@
       <c r="G128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="5">
-        <v>3.13288773148148</v>
+      <c r="H128" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I128" s="4" t="b">
         <v>0</v>
@@ -5598,8 +5600,8 @@
       <c r="G129" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="5">
-        <v>10.5495543981481</v>
+      <c r="H129" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I129" s="4" t="b">
         <v>0</v>
@@ -5628,8 +5630,8 @@
       <c r="G130" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H130" s="5">
-        <v>1.5495543981481501</v>
+      <c r="H130" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I130" s="4" t="b">
         <v>0</v>
@@ -5658,8 +5660,8 @@
       <c r="G131" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H131" s="5">
-        <v>6.00788773148148</v>
+      <c r="H131" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I131" s="4" t="b">
         <v>0</v>
@@ -5688,8 +5690,8 @@
       <c r="G132" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="5">
-        <v>9.0912210648148193</v>
+      <c r="H132" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I132" s="4" t="b">
         <v>0</v>
@@ -5718,8 +5720,8 @@
       <c r="G133" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="5">
-        <v>9.5495543981481497</v>
+      <c r="H133" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I133" s="4" t="b">
         <v>0</v>
@@ -5748,8 +5750,8 @@
       <c r="G134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="5">
-        <v>6.7162210648148104</v>
+      <c r="H134" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I134" s="4" t="b">
         <v>0</v>
@@ -5778,8 +5780,8 @@
       <c r="G135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="5">
-        <v>7.7995543981481497</v>
+      <c r="H135" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I135" s="4" t="b">
         <v>0</v>
@@ -5808,8 +5810,8 @@
       <c r="G136" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H136" s="5">
-        <v>4.7995543981481497</v>
+      <c r="H136" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I136" s="4" t="b">
         <v>0</v>
@@ -5838,8 +5840,8 @@
       <c r="G137" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H137" s="5">
-        <v>6.4662210648148104</v>
+      <c r="H137" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I137" s="4" t="b">
         <v>0</v>
@@ -5868,8 +5870,8 @@
       <c r="G138" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H138" s="5">
-        <v>4.4662210648148104</v>
+      <c r="H138" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I138" s="4" t="b">
         <v>0</v>
@@ -5898,8 +5900,8 @@
       <c r="G139" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H139" s="5">
-        <v>8.75788773148148</v>
+      <c r="H139" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I139" s="4" t="b">
         <v>0</v>
@@ -5928,8 +5930,8 @@
       <c r="G140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H140" s="5">
-        <v>8.2162210648148193</v>
+      <c r="H140" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I140" s="4" t="b">
         <v>0</v>
@@ -5958,8 +5960,8 @@
       <c r="G141" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="5">
-        <v>8.6745543981481497</v>
+      <c r="H141" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I141" s="4" t="b">
         <v>0</v>
@@ -5988,8 +5990,8 @@
       <c r="G142" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="5">
-        <v>1.59122106481481</v>
+      <c r="H142" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I142" s="4" t="b">
         <v>0</v>
@@ -6018,8 +6020,8 @@
       <c r="G143" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="5">
-        <v>1.63288773148148</v>
+      <c r="H143" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I143" s="4" t="b">
         <v>0</v>
@@ -6048,8 +6050,8 @@
       <c r="G144" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H144" s="5">
-        <v>11.6745543981481</v>
+      <c r="H144" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I144" s="4" t="b">
         <v>0</v>
@@ -6078,8 +6080,8 @@
       <c r="G145" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H145" s="5">
-        <v>7.5912210648148104</v>
+      <c r="H145" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I145" s="4" t="b">
         <v>0</v>
@@ -6108,8 +6110,8 @@
       <c r="G146" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="5">
-        <v>1.6745543981481501</v>
+      <c r="H146" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I146" s="4" t="b">
         <v>0</v>
@@ -6138,8 +6140,8 @@
       <c r="G147" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="5">
-        <v>9.63288773148148</v>
+      <c r="H147" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I147" s="4" t="b">
         <v>0</v>
@@ -6168,8 +6170,8 @@
       <c r="G148" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H148" s="5">
-        <v>6.9245543981481497</v>
+      <c r="H148" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I148" s="4" t="b">
         <v>0</v>
@@ -6198,8 +6200,8 @@
       <c r="G149" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H149" s="5">
-        <v>1.71622106481481</v>
+      <c r="H149" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I149" s="4" t="b">
         <v>0</v>
@@ -6228,8 +6230,8 @@
       <c r="G150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H150" s="5">
-        <v>9.2162210648148193</v>
+      <c r="H150" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I150" s="4" t="b">
         <v>0</v>
@@ -6258,8 +6260,8 @@
       <c r="G151" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H151" s="5">
-        <v>1.75788773148148</v>
+      <c r="H151" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I151" s="4" t="b">
         <v>0</v>
@@ -6288,8 +6290,8 @@
       <c r="G152" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H152" s="5">
-        <v>1.7995543981481501</v>
+      <c r="H152" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I152" s="4" t="b">
         <v>0</v>
@@ -6318,8 +6320,8 @@
       <c r="G153" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H153" s="5">
-        <v>4.1745543981481497</v>
+      <c r="H153" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I153" s="4" t="b">
         <v>0</v>
@@ -6348,8 +6350,8 @@
       <c r="G154" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H154" s="5">
-        <v>1.84122106481481</v>
+      <c r="H154" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I154" s="4" t="b">
         <v>0</v>
@@ -6378,8 +6380,8 @@
       <c r="G155" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H155" s="5">
-        <v>11.1745543981481</v>
+      <c r="H155" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I155" s="4" t="b">
         <v>0</v>
@@ -6408,8 +6410,8 @@
       <c r="G156" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H156" s="5">
-        <v>1.88288773148148</v>
+      <c r="H156" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I156" s="4" t="b">
         <v>0</v>
@@ -6438,8 +6440,8 @@
       <c r="G157" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H157" s="5">
-        <v>6.0495543981481497</v>
+      <c r="H157" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I157" s="4" t="b">
         <v>0</v>
@@ -6468,8 +6470,8 @@
       <c r="G158" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H158" s="5">
-        <v>7.0495543981481497</v>
+      <c r="H158" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I158" s="4" t="b">
         <v>0</v>
@@ -6498,8 +6500,8 @@
       <c r="G159" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H159" s="5">
-        <v>9.2995543981481497</v>
+      <c r="H159" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I159" s="4" t="b">
         <v>0</v>
@@ -6528,8 +6530,8 @@
       <c r="G160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H160" s="5">
-        <v>1.9245543981481501</v>
+      <c r="H160" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I160" s="4" t="b">
         <v>0</v>
@@ -6558,8 +6560,8 @@
       <c r="G161" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H161" s="5">
-        <v>5.7162210648148104</v>
+      <c r="H161" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I161" s="4" t="b">
         <v>0</v>
@@ -6588,8 +6590,8 @@
       <c r="G162" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H162" s="5">
-        <v>3.96622106481481</v>
+      <c r="H162" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I162" s="4" t="b">
         <v>0</v>
@@ -6618,8 +6620,8 @@
       <c r="G163" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H163" s="5">
-        <v>3.5495543981481501</v>
+      <c r="H163" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I163" s="4" t="b">
         <v>0</v>
@@ -6648,8 +6650,8 @@
       <c r="G164" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H164" s="5">
-        <v>1.96622106481481</v>
+      <c r="H164" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I164" s="4" t="b">
         <v>0</v>
@@ -6678,8 +6680,8 @@
       <c r="G165" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H165" s="5">
-        <v>7.88288773148148</v>
+      <c r="H165" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I165" s="4" t="b">
         <v>0</v>
@@ -6708,8 +6710,8 @@
       <c r="G166" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H166" s="5">
-        <v>2.00788773148148</v>
+      <c r="H166" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I166" s="4" t="b">
         <v>0</v>
@@ -6738,8 +6740,8 @@
       <c r="G167" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H167" s="5">
-        <v>4.6745543981481497</v>
+      <c r="H167" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I167" s="4" t="b">
         <v>0</v>
@@ -6768,8 +6770,8 @@
       <c r="G168" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H168" s="5">
-        <v>8.2995543981481497</v>
+      <c r="H168" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I168" s="4" t="b">
         <v>0</v>
@@ -6798,8 +6800,8 @@
       <c r="G169" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H169" s="5">
-        <v>8.00788773148148</v>
+      <c r="H169" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I169" s="4" t="b">
         <v>0</v>
@@ -6828,8 +6830,8 @@
       <c r="G170" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H170" s="5">
-        <v>2.0495543981481501</v>
+      <c r="H170" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I170" s="4" t="b">
         <v>0</v>
@@ -6858,8 +6860,8 @@
       <c r="G171" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H171" s="5">
-        <v>7.25788773148148</v>
+      <c r="H171" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I171" s="4" t="b">
         <v>0</v>
@@ -6888,8 +6890,8 @@
       <c r="G172" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H172" s="5">
-        <v>8.38288773148148</v>
+      <c r="H172" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I172" s="4" t="b">
         <v>0</v>
@@ -6918,8 +6920,8 @@
       <c r="G173" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H173" s="5">
-        <v>3.21622106481481</v>
+      <c r="H173" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I173" s="4" t="b">
         <v>0</v>
@@ -6948,8 +6950,8 @@
       <c r="G174" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H174" s="5">
-        <v>2.09122106481481</v>
+      <c r="H174" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I174" s="4" t="b">
         <v>0</v>
@@ -6978,8 +6980,8 @@
       <c r="G175" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H175" s="5">
-        <v>10.3412210648148</v>
+      <c r="H175" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I175" s="4" t="b">
         <v>0</v>
@@ -7008,8 +7010,8 @@
       <c r="G176" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H176" s="5">
-        <v>2.13288773148148</v>
+      <c r="H176" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I176" s="4" t="b">
         <v>0</v>
@@ -7038,8 +7040,8 @@
       <c r="G177" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H177" s="5">
-        <v>10.2162210648148</v>
+      <c r="H177" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I177" s="4" t="b">
         <v>0</v>
@@ -7068,8 +7070,8 @@
       <c r="G178" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H178" s="5">
-        <v>7.1745543981481497</v>
+      <c r="H178" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I178" s="4" t="b">
         <v>0</v>
@@ -7098,8 +7100,8 @@
       <c r="G179" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H179" s="5">
-        <v>10.4662210648148</v>
+      <c r="H179" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I179" s="4" t="b">
         <v>0</v>
@@ -7128,8 +7130,8 @@
       <c r="G180" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H180" s="5">
-        <v>4.0912210648148104</v>
+      <c r="H180" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I180" s="4" t="b">
         <v>0</v>
@@ -7158,8 +7160,8 @@
       <c r="G181" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="5">
-        <v>6.9662210648148104</v>
+      <c r="H181" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I181" s="4" t="b">
         <v>0</v>
@@ -7188,8 +7190,8 @@
       <c r="G182" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H182" s="5">
-        <v>9.7995543981481497</v>
+      <c r="H182" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I182" s="4" t="b">
         <v>0</v>
@@ -7218,8 +7220,8 @@
       <c r="G183" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="5">
-        <v>2.1745543981481501</v>
+      <c r="H183" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I183" s="4" t="b">
         <v>0</v>
@@ -7248,8 +7250,8 @@
       <c r="G184" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H184" s="5">
-        <v>8.9245543981481497</v>
+      <c r="H184" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I184" s="4" t="b">
         <v>0</v>
@@ -7278,8 +7280,8 @@
       <c r="G185" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H185" s="5">
-        <v>3.75788773148148</v>
+      <c r="H185" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I185" s="4" t="b">
         <v>0</v>
@@ -7308,8 +7310,8 @@
       <c r="G186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H186" s="5">
-        <v>5.75788773148148</v>
+      <c r="H186" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I186" s="4" t="b">
         <v>0</v>
@@ -7338,8 +7340,8 @@
       <c r="G187" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H187" s="5">
-        <v>5.13288773148148</v>
+      <c r="H187" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I187" s="4" t="b">
         <v>0</v>
@@ -7368,8 +7370,8 @@
       <c r="G188" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H188" s="5">
-        <v>8.13288773148148</v>
+      <c r="H188" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I188" s="4" t="b">
         <v>0</v>
@@ -7398,8 +7400,8 @@
       <c r="G189" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H189" s="5">
-        <v>8.5912210648148193</v>
+      <c r="H189" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I189" s="4" t="b">
         <v>0</v>
@@ -7428,8 +7430,8 @@
       <c r="G190" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H190" s="5">
-        <v>7.4245543981481497</v>
+      <c r="H190" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I190" s="4" t="b">
         <v>0</v>
@@ -7458,8 +7460,8 @@
       <c r="G191" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H191" s="5">
-        <v>5.6745543981481497</v>
+      <c r="H191" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I191" s="4" t="b">
         <v>0</v>
@@ -7488,8 +7490,8 @@
       <c r="G192" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H192" s="5">
-        <v>9.75788773148148</v>
+      <c r="H192" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I192" s="4" t="b">
         <v>0</v>
@@ -7518,8 +7520,8 @@
       <c r="G193" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H193" s="5">
-        <v>2.21622106481481</v>
+      <c r="H193" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I193" s="4" t="b">
         <v>0</v>
@@ -7548,8 +7550,8 @@
       <c r="G194" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H194" s="5">
-        <v>8.88288773148148</v>
+      <c r="H194" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I194" s="4" t="b">
         <v>0</v>
@@ -7578,8 +7580,8 @@
       <c r="G195" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H195" s="5">
-        <v>2.25788773148148</v>
+      <c r="H195" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I195" s="4" t="b">
         <v>0</v>
@@ -7608,8 +7610,8 @@
       <c r="G196" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H196" s="5">
-        <v>8.63288773148148</v>
+      <c r="H196" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I196" s="4" t="b">
         <v>0</v>
@@ -7638,8 +7640,8 @@
       <c r="G197" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H197" s="5">
-        <v>2.2995543981481501</v>
+      <c r="H197" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I197" s="4" t="b">
         <v>0</v>
@@ -7668,8 +7670,8 @@
       <c r="G198" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H198" s="5">
-        <v>7.8877314814814817E-3</v>
+      <c r="H198" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I198" s="4" t="b">
         <v>0</v>
@@ -7698,8 +7700,8 @@
       <c r="G199" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H199" s="5">
-        <v>5.00788773148148</v>
+      <c r="H199" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I199" s="4" t="b">
         <v>0</v>
@@ -7728,8 +7730,8 @@
       <c r="G200" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H200" s="5">
-        <v>5.0495543981481497</v>
+      <c r="H200" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I200" s="4" t="b">
         <v>0</v>
@@ -7758,8 +7760,8 @@
       <c r="G201" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H201" s="5">
-        <v>2.34122106481481</v>
+      <c r="H201" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I201" s="4" t="b">
         <v>0</v>
@@ -7788,8 +7790,8 @@
       <c r="G202" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H202" s="5">
-        <v>11.8828877314815</v>
+      <c r="H202" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I202" s="4" t="b">
         <v>0</v>
@@ -7818,8 +7820,8 @@
       <c r="G203" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H203" s="5">
-        <v>2.38288773148148</v>
+      <c r="H203" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I203" s="4" t="b">
         <v>0</v>
@@ -7848,8 +7850,8 @@
       <c r="G204" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H204" s="5">
-        <v>2.4245543981481501</v>
+      <c r="H204" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I204" s="4" t="b">
         <v>0</v>
@@ -7878,8 +7880,8 @@
       <c r="G205" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H205" s="5">
-        <v>11.0912210648148</v>
+      <c r="H205" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I205" s="4" t="b">
         <v>0</v>
@@ -7908,8 +7910,8 @@
       <c r="G206" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H206" s="5">
-        <v>2.46622106481481</v>
+      <c r="H206" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I206" s="4" t="b">
         <v>0</v>
@@ -7938,8 +7940,8 @@
       <c r="G207" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H207" s="5">
-        <v>8.25788773148148</v>
+      <c r="H207" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I207" s="4" t="b">
         <v>0</v>
@@ -7968,8 +7970,8 @@
       <c r="G208" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H208" s="5">
-        <v>10.8412210648148</v>
+      <c r="H208" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I208" s="4" t="b">
         <v>0</v>
@@ -7998,8 +8000,8 @@
       <c r="G209" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H209" s="5">
-        <v>5.63288773148148</v>
+      <c r="H209" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I209" s="4" t="b">
         <v>0</v>
@@ -8028,8 +8030,8 @@
       <c r="G210" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H210" s="5">
-        <v>5.38288773148148</v>
+      <c r="H210" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I210" s="4" t="b">
         <v>0</v>
@@ -8058,8 +8060,8 @@
       <c r="G211" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H211" s="5">
-        <v>8.4662210648148193</v>
+      <c r="H211" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I211" s="4" t="b">
         <v>0</v>
@@ -8088,8 +8090,8 @@
       <c r="G212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H212" s="5">
-        <v>10.7995543981481</v>
+      <c r="H212" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I212" s="4" t="b">
         <v>0</v>
@@ -8118,8 +8120,8 @@
       <c r="G213" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H213" s="5">
-        <v>4.3412210648148104</v>
+      <c r="H213" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I213" s="4" t="b">
         <v>0</v>
@@ -8148,8 +8150,8 @@
       <c r="G214" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H214" s="5">
-        <v>7.13288773148148</v>
+      <c r="H214" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I214" s="4" t="b">
         <v>0</v>
@@ -8178,8 +8180,8 @@
       <c r="G215" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H215" s="5">
-        <v>3.6745543981481501</v>
+      <c r="H215" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I215" s="4" t="b">
         <v>0</v>
@@ -8208,8 +8210,8 @@
       <c r="G216" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H216" s="5">
-        <v>4.9662210648148104</v>
+      <c r="H216" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I216" s="4" t="b">
         <v>0</v>
@@ -8238,8 +8240,8 @@
       <c r="G217" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H217" s="5">
-        <v>9.1745543981481497</v>
+      <c r="H217" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I217" s="4" t="b">
         <v>0</v>
@@ -8268,8 +8270,8 @@
       <c r="G218" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H218" s="5">
-        <v>3.25788773148148</v>
+      <c r="H218" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I218" s="4" t="b">
         <v>0</v>
@@ -8298,8 +8300,8 @@
       <c r="G219" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H219" s="5">
-        <v>3.7995543981481501</v>
+      <c r="H219" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I219" s="4" t="b">
         <v>0</v>
@@ -8328,8 +8330,8 @@
       <c r="G220" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H220" s="5">
-        <v>4.8412210648148104</v>
+      <c r="H220" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I220" s="4" t="b">
         <v>0</v>
@@ -8358,8 +8360,8 @@
       <c r="G221" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H221" s="5">
-        <v>3.34122106481481</v>
+      <c r="H221" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I221" s="4" t="b">
         <v>0</v>
@@ -8388,8 +8390,8 @@
       <c r="G222" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H222" s="5">
-        <v>9.13288773148148</v>
+      <c r="H222" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I222" s="4" t="b">
         <v>0</v>
@@ -8418,8 +8420,8 @@
       <c r="G223" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H223" s="5">
-        <v>6.25788773148148</v>
+      <c r="H223" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I223" s="4" t="b">
         <v>0</v>
@@ -8448,8 +8450,8 @@
       <c r="G224" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="5">
-        <v>3.88288773148148</v>
+      <c r="H224" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I224" s="4" t="b">
         <v>0</v>
@@ -8478,8 +8480,8 @@
       <c r="G225" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="5">
-        <v>10.9245543981481</v>
+      <c r="H225" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I225" s="4" t="b">
         <v>0</v>
@@ -8508,8 +8510,8 @@
       <c r="G226" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H226" s="5">
-        <v>10.2578877314815</v>
+      <c r="H226" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I226" s="4" t="b">
         <v>0</v>
@@ -8538,8 +8540,8 @@
       <c r="G227" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H227" s="5">
-        <v>3.4245543981481501</v>
+      <c r="H227" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I227" s="4" t="b">
         <v>0</v>
@@ -8568,8 +8570,8 @@
       <c r="G228" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H228" s="5">
-        <v>2.50788773148148</v>
+      <c r="H228" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I228" s="4" t="b">
         <v>0</v>
@@ -8598,8 +8600,8 @@
       <c r="G229" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H229" s="5">
-        <v>4.5495543981481497</v>
+      <c r="H229" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I229" s="4" t="b">
         <v>0</v>
@@ -8628,8 +8630,8 @@
       <c r="G230" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H230" s="5">
-        <v>7.63288773148148</v>
+      <c r="H230" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I230" s="4" t="b">
         <v>0</v>
@@ -8658,8 +8660,8 @@
       <c r="G231" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H231" s="5">
-        <v>9.9662210648148193</v>
+      <c r="H231" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I231" s="4" t="b">
         <v>0</v>
@@ -8688,8 +8690,8 @@
       <c r="G232" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H232" s="5">
-        <v>9.4245543981481497</v>
+      <c r="H232" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I232" s="4" t="b">
         <v>0</v>
@@ -8718,8 +8720,8 @@
       <c r="G233" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H233" s="5">
-        <v>2.5495543981481501</v>
+      <c r="H233" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I233" s="4" t="b">
         <v>0</v>
@@ -8748,8 +8750,8 @@
       <c r="G234" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H234" s="5">
-        <v>2.59122106481481</v>
+      <c r="H234" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I234" s="4" t="b">
         <v>0</v>
@@ -8778,8 +8780,8 @@
       <c r="G235" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H235" s="5">
-        <v>5.4662210648148104</v>
+      <c r="H235" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I235" s="4" t="b">
         <v>0</v>
@@ -8808,8 +8810,8 @@
       <c r="G236" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H236" s="5">
-        <v>7.9662210648148104</v>
+      <c r="H236" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I236" s="4" t="b">
         <v>0</v>
@@ -8838,8 +8840,8 @@
       <c r="G237" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H237" s="5">
-        <v>11.1328877314815</v>
+      <c r="H237" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I237" s="4" t="b">
         <v>0</v>
@@ -8868,8 +8870,8 @@
       <c r="G238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H238" s="5">
-        <v>11.5495543981481</v>
+      <c r="H238" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I238" s="4" t="b">
         <v>0</v>
@@ -8898,8 +8900,8 @@
       <c r="G239" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H239" s="5">
-        <v>10.0495543981481</v>
+      <c r="H239" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I239" s="4" t="b">
         <v>0</v>
@@ -8928,8 +8930,8 @@
       <c r="G240" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H240" s="5">
-        <v>11.2162210648148</v>
+      <c r="H240" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I240" s="4" t="b">
         <v>0</v>
@@ -8958,8 +8960,8 @@
       <c r="G241" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H241" s="5">
-        <v>3.63288773148148</v>
+      <c r="H241" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I241" s="4" t="b">
         <v>0</v>
@@ -8988,8 +8990,8 @@
       <c r="G242" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H242" s="5">
-        <v>2.63288773148148</v>
+      <c r="H242" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I242" s="4" t="b">
         <v>0</v>
@@ -9018,8 +9020,8 @@
       <c r="G243" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H243" s="5">
-        <v>4.7162210648148104</v>
+      <c r="H243" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I243" s="4" t="b">
         <v>0</v>
@@ -9048,8 +9050,8 @@
       <c r="G244" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H244" s="5">
-        <v>2.6745543981481501</v>
+      <c r="H244" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I244" s="4" t="b">
         <v>0</v>
@@ -9078,8 +9080,8 @@
       <c r="G245" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H245" s="5">
-        <v>2.71622106481481</v>
+      <c r="H245" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I245" s="4" t="b">
         <v>0</v>
@@ -9108,8 +9110,8 @@
       <c r="G246" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H246" s="5">
-        <v>9.25788773148148</v>
+      <c r="H246" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I246" s="4" t="b">
         <v>0</v>
@@ -9138,8 +9140,8 @@
       <c r="G247" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H247" s="5">
-        <v>10.7578877314815</v>
+      <c r="H247" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I247" s="4" t="b">
         <v>0</v>
@@ -9168,8 +9170,8 @@
       <c r="G248" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H248" s="5">
-        <v>2.75788773148148</v>
+      <c r="H248" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I248" s="4" t="b">
         <v>0</v>
@@ -9198,8 +9200,8 @@
       <c r="G249" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H249" s="5">
-        <v>2.7995543981481501</v>
+      <c r="H249" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I249" s="4" t="b">
         <v>0</v>
@@ -9228,8 +9230,8 @@
       <c r="G250" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H250" s="5">
-        <v>2.84122106481481</v>
+      <c r="H250" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I250" s="4" t="b">
         <v>0</v>
@@ -9258,8 +9260,8 @@
       <c r="G251" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H251" s="5">
-        <v>11.2995543981481</v>
+      <c r="H251" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I251" s="4" t="b">
         <v>0</v>
@@ -9288,8 +9290,8 @@
       <c r="G252" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H252" s="5">
-        <v>2.88288773148148</v>
+      <c r="H252" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I252" s="4" t="b">
         <v>0</v>
@@ -9318,8 +9320,8 @@
       <c r="G253" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H253" s="5">
-        <v>2.9245543981481501</v>
+      <c r="H253" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I253" s="4" t="b">
         <v>0</v>
@@ -9348,8 +9350,8 @@
       <c r="G254" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H254" s="5">
-        <v>7.2995543981481497</v>
+      <c r="H254" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I254" s="4" t="b">
         <v>0</v>
@@ -9378,8 +9380,8 @@
       <c r="G255" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H255" s="5">
-        <v>2.96622106481481</v>
+      <c r="H255" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I255" s="4" t="b">
         <v>0</v>
@@ -9408,8 +9410,8 @@
       <c r="G256" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H256" s="5">
-        <v>6.1745543981481497</v>
+      <c r="H256" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I256" s="4" t="b">
         <v>0</v>
@@ -9438,8 +9440,8 @@
       <c r="G257" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H257" s="5">
-        <v>5.50788773148148</v>
+      <c r="H257" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I257" s="4" t="b">
         <v>0</v>
@@ -9468,8 +9470,8 @@
       <c r="G258" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H258" s="5">
-        <v>6.6745543981481497</v>
+      <c r="H258" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I258" s="4" t="b">
         <v>0</v>
@@ -9498,8 +9500,8 @@
       <c r="G259" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H259" s="5">
-        <v>7.50788773148148</v>
+      <c r="H259" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I259" s="4" t="b">
         <v>0</v>
@@ -9528,8 +9530,8 @@
       <c r="G260" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H260" s="5">
-        <v>3.00788773148148</v>
+      <c r="H260" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I260" s="4" t="b">
         <v>0</v>
@@ -9558,8 +9560,8 @@
       <c r="G261" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H261" s="5">
-        <v>3.46622106481481</v>
+      <c r="H261" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I261" s="4" t="b">
         <v>0</v>
@@ -9588,8 +9590,8 @@
       <c r="G262" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H262" s="5">
-        <v>8.0912210648148193</v>
+      <c r="H262" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I262" s="4" t="b">
         <v>0</v>
@@ -9618,8 +9620,8 @@
       <c r="G263" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H263" s="5">
-        <v>3.0495543981481501</v>
+      <c r="H263" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I263" s="4" t="b">
         <v>0</v>
@@ -9648,8 +9650,8 @@
       <c r="G264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H264" s="5">
-        <v>3.09122106481481</v>
+      <c r="H264" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I264" s="4" t="b">
         <v>0</v>
@@ -9678,8 +9680,8 @@
       <c r="G265" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H265" s="5">
-        <v>10.7162210648148</v>
+      <c r="H265" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I265" s="4" t="b">
         <v>0</v>
